--- a/GUI + Reviews/202506/US_CA 200.xlsx
+++ b/GUI + Reviews/202506/US_CA 200.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\PM-Indices-IndexOperations\Review Files\Data input files\Factset Data\Calculation file\202506\Preliminary 10.06\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\PM-Indices-IndexOperations\Review Files\Data input files\Factset Data\Calculation file\202506\Preliminary 11.06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B34E6F1-6C27-42CA-896E-12B1ED798995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBA20AC0-CEC8-4E95-A269-FE84D1494F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28530" yWindow="-18120" windowWidth="29040" windowHeight="17640" xr2:uid="{AD63688B-664A-49CB-ADC7-4EEDD0D58653}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F810C7CF-55B0-4A28-8532-56631FAF54F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2116,18 +2116,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4D2F0C7C-D1D0-4187-8080-6C33088475C1}" name="Universe" displayName="Universe" ref="A1:I201" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="A1:I201" xr:uid="{4D2F0C7C-D1D0-4187-8080-6C33088475C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8DF00276-0FD4-4DDB-9CAB-77A0A72E99D4}" name="Universe" displayName="Universe" ref="A1:I201" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A1:I201" xr:uid="{8DF00276-0FD4-4DDB-9CAB-77A0A72E99D4}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{5363F9A1-3A31-496F-8E03-7612E8E4A001}" name="Rank" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{819C5BFE-8FC7-450E-93BA-2E5587B79099}" name="Ticker" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{78F9DF81-84EE-40F4-A067-6C70B4AAF122}" name="Name" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{FC634691-D7DE-44DC-9894-36F9A04EC572}" name="ISIN" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{5923D022-8E2E-4D83-B559-901FDDA726B4}" name="MIC" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{99810955-1BC3-4CDC-9892-6FF8D1580185}" name="NOSH" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{2D9BACAF-E9D4-4453-929D-14D04F8D9A73}" name="Price (EUR) " dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{1B14B6F6-123C-49F4-93C0-A84908ACB35E}" name="Currency (Local)" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{757FA19B-24F4-468B-98C1-E76DFBC98666}" name="12 month aver. turnover EUR" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{193F9170-38DE-44AE-8BB1-1AEF9613D7D3}" name="Rank" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{BC1083D7-30F7-4B0C-9070-70D822FB87BE}" name="Ticker" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{741EBE85-D0EA-4D37-B606-9A45B7A81F80}" name="Name" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{339FD16D-00B1-4C87-8ACF-77C5710C0376}" name="ISIN" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{19C0635B-96BB-4B1E-93FE-6A69B70A5F77}" name="MIC" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{A2597330-4A80-4C4D-8A95-C8ED6077BF73}" name="NOSH" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{16D82409-9C76-4A54-884F-BC339D4B7404}" name="Price (EUR) " dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{3864AA00-9B51-484A-9FC8-B2CAD8F833A7}" name="Currency (Local)" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{6C91D455-5057-4F82-9FFE-182A34CBB5E2}" name="12 month aver. turnover EUR" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2449,7 +2449,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A318DD6-C2E5-4AD7-B3C0-6F03B85B47CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D51A168-2AEA-4960-BA35-20864148E593}">
   <dimension ref="A1:I201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
